--- a/data/trans_camb/P08_1_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P08_1_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-3.85567918355092</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.107430366835433</v>
+        <v>2.107430366835428</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.327675086532503</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.237672537637784</v>
+        <v>-6.598479300401242</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.031908353097269</v>
+        <v>-6.157071325993358</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.163277838731952</v>
+        <v>0.8987346610546336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.123833715015971</v>
+        <v>-6.199142682956198</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.839107591402299</v>
+        <v>-8.097439718077066</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.433973757859465</v>
+        <v>-2.423100014042401</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.104233394596494</v>
+        <v>-6.308127133765304</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.835093469459536</v>
+        <v>-7.031086043694419</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.09347409580771503</v>
+        <v>-0.5840756891604109</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.885070489182157</v>
+        <v>1.64442752078429</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.534237689696061</v>
+        <v>1.891200200860591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.55896092973636</v>
+        <v>11.20919157555707</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.378609982016975</v>
+        <v>2.478434340093619</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.317397836398621</v>
+        <v>0.5463763841814897</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.572319640299601</v>
+        <v>6.427945176940941</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.4530616176552209</v>
+        <v>-0.3554082708763904</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.267926442168501</v>
+        <v>-1.350390805770683</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.549027880979374</v>
+        <v>6.500971057766892</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1252356111653468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06845106073788591</v>
+        <v>0.06845106073788573</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1273118107094428</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2905498844799531</v>
+        <v>-0.3033391445037579</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2839982770476498</v>
+        <v>-0.28574932353122</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05580251400336685</v>
+        <v>0.03286338298199297</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1833425172617921</v>
+        <v>-0.1895164637696675</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.23776639328741</v>
+        <v>-0.2476278396221605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07258314964862854</v>
+        <v>-0.06973637619475823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2195616056756751</v>
+        <v>-0.2236600449723181</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2452743001050609</v>
+        <v>-0.2500177257683281</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.004193718381333717</v>
+        <v>-0.0195855617899398</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1247863558352413</v>
+        <v>0.1053171745039172</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1020712176454942</v>
+        <v>0.1235350522661821</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7170951690350776</v>
+        <v>0.6550880355872011</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08142039548416939</v>
+        <v>0.09492326697168224</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01122048707491424</v>
+        <v>0.02116048132326984</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2333986702605972</v>
+        <v>0.2272245446610332</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.01897601305246386</v>
+        <v>-0.01476449054374742</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.05202664719608981</v>
+        <v>-0.05510353742339137</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2652268470571312</v>
+        <v>0.2660193373557181</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.128449578983469</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.723547304659596</v>
+        <v>5.72354730465959</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07629128858107627</v>
+        <v>0.1044052141580635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9684767071544302</v>
+        <v>-1.049985413489901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.327205037383001</v>
+        <v>2.111323788359649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.471034540459077</v>
+        <v>2.688119304332023</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.828595180344475</v>
+        <v>-2.323771715657759</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.185722195716722</v>
+        <v>2.183082146689903</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.471906175352073</v>
+        <v>2.710341023171278</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3544197799718422</v>
+        <v>-0.4447451292695436</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.382571240926066</v>
+        <v>3.614242992921909</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.223934402532595</v>
+        <v>6.196145423722574</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.888839304388704</v>
+        <v>5.062233318338971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.408567408064851</v>
+        <v>8.122203767600743</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.16747083624548</v>
+        <v>10.2018035347535</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.581579320718872</v>
+        <v>5.476275429483355</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.782381551910978</v>
+        <v>8.715682295298102</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.553923274372725</v>
+        <v>7.528412634413201</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.341466912731581</v>
+        <v>4.469199672173164</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.871420293674602</v>
+        <v>7.988217848712659</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1358591727693612</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3653346594607769</v>
+        <v>0.3653346594607765</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.000929690178909336</v>
+        <v>0.007466289599780501</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07174177007338733</v>
+        <v>-0.0905687257186425</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1798760164829104</v>
+        <v>0.1682020545270047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1142010735172778</v>
+        <v>0.1180005366563609</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08640648108607303</v>
+        <v>-0.1069180759350024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09569366006878283</v>
+        <v>0.09862556167149411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1503088863378971</v>
+        <v>0.158342407173619</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0230570854736119</v>
+        <v>-0.02635985894408044</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2039138635494404</v>
+        <v>0.2080682888421298</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6006458081899704</v>
+        <v>0.6044090556794144</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4857349021896092</v>
+        <v>0.5031472828056343</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8251839747294777</v>
+        <v>0.8137300708483139</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5602429645817454</v>
+        <v>0.5693869056614268</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3047152305289476</v>
+        <v>0.3025726297503558</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.480970168634873</v>
+        <v>0.4782072044238533</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5173683589976393</v>
+        <v>0.5105376958423962</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2979717352074666</v>
+        <v>0.3076928019223269</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5356820871379125</v>
+        <v>0.5461021191971448</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.199314380739152</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.62072094421343</v>
+        <v>2.620720944213428</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.551230494651485</v>
@@ -1083,7 +1083,7 @@
         <v>4.633333822213606</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8290300821514385</v>
+        <v>0.829030082151444</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.548766093544167</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.138893466358778</v>
+        <v>3.215936761192423</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2604632891603956</v>
+        <v>0.713191656180869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1966404725784627</v>
+        <v>0.3347848083175003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9413285232128112</v>
+        <v>0.8045974576077154</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4136696758095918</v>
+        <v>0.8131238971878164</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.128282589838145</v>
+        <v>-2.280224739881098</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.426633428132556</v>
+        <v>3.36594251614309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.554984708862427</v>
+        <v>1.754104479953384</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1111919823248256</v>
+        <v>0.08016258899019134</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.135647867582417</v>
+        <v>8.959490352106366</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.08508856823024</v>
+        <v>5.998102349375624</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.979041109796636</v>
+        <v>5.345056241251344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.968402622189799</v>
+        <v>8.175716365312239</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.361596277077139</v>
+        <v>8.673743782100722</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.060162843629974</v>
+        <v>3.687070561035292</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.414345398105649</v>
+        <v>8.153264205304623</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.620603345241009</v>
+        <v>6.580915445336744</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.171946795256504</v>
+        <v>3.781204507754459</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3793718467764669</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3107627529440586</v>
+        <v>0.3107627529440585</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2695016604794255</v>
@@ -1188,7 +1188,7 @@
         <v>0.274363418884077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04909111590585707</v>
+        <v>0.04909111590585739</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4472896659919233</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3183006542058825</v>
+        <v>0.3387153315170107</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01892797746967572</v>
+        <v>0.07464621762994045</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01955245451384493</v>
+        <v>0.03651703948065795</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04622840080835865</v>
+        <v>0.04553260201811504</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02747652144187199</v>
+        <v>0.04227244685962608</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1137638864823431</v>
+        <v>-0.1226888702679379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2531894879821426</v>
+        <v>0.246335235339554</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.116714599967149</v>
+        <v>0.131933194103969</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.006611140938960483</v>
+        <v>0.005291387406909409</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.239813146454035</v>
+        <v>1.211289093888384</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8298812284468438</v>
+        <v>0.8235036163424003</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6749536458208475</v>
+        <v>0.721438244853351</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5202783280653637</v>
+        <v>0.5339453186131076</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5489177900619643</v>
+        <v>0.5769074538575369</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2713981782904242</v>
+        <v>0.2378088712674393</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7416042899482789</v>
+        <v>0.7070822844465253</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5669571773599175</v>
+        <v>0.5687476755917346</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3643829657737879</v>
+        <v>0.3361559935444394</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.177189367504221</v>
+        <v>1.473761405683556</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.8585988179155</v>
+        <v>1.496053628036275</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.353859710063915</v>
+        <v>1.388387355510294</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.346712162088237</v>
+        <v>4.377968394868698</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.090666487450034</v>
+        <v>-2.356775780968341</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3252170480326189</v>
+        <v>-0.06826283210039118</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.105403578647595</v>
+        <v>4.50358373204873</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.305956309038392</v>
+        <v>1.714490205906193</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.35566344922731</v>
+        <v>2.249419621837413</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.849903713325537</v>
+        <v>9.159617000345637</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.493008135710179</v>
+        <v>9.315222445578481</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.391254922953412</v>
+        <v>7.315764045137138</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.90439659653661</v>
+        <v>14.79919275873431</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.4945743257615</v>
+        <v>7.859087382177857</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.932050230976984</v>
+        <v>8.071346852632356</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.72698564699419</v>
+        <v>10.19421059848781</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.641260512498296</v>
+        <v>7.592373587738884</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.873544244677285</v>
+        <v>7.092047633116834</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0849032218144645</v>
+        <v>0.1615692813491925</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2391054218550717</v>
+        <v>0.1693105277277282</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1502375838471113</v>
+        <v>0.1744522972589361</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2818727678430294</v>
+        <v>0.3151528637691994</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1538778026489565</v>
+        <v>-0.1606123977171184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02024999038847121</v>
+        <v>0.005145771506133613</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4034428634434066</v>
+        <v>0.4355372238393577</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.12374517008991</v>
+        <v>0.1777415427433372</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2136232510002692</v>
+        <v>0.2101630332669244</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.806198965049584</v>
+        <v>1.821197704532406</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.985115245207094</v>
+        <v>1.915411843483229</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.620966450447523</v>
+        <v>1.704139631203729</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.617095938380577</v>
+        <v>1.705571486576937</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7981482028296899</v>
+        <v>0.9148997442442546</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8910497049760601</v>
+        <v>0.9156294354477851</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.505609720786978</v>
+        <v>1.391088407963962</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.058103623545964</v>
+        <v>1.081965963385358</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9701791562503057</v>
+        <v>1.035137023927345</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.912237609365716</v>
+        <v>1.857297224690543</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.195349202064127</v>
+        <v>1.088011802817519</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.795067095788872</v>
+        <v>2.01038493927975</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.789094638271032</v>
+        <v>1.895659603374317</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8502636162423818</v>
+        <v>-0.6475593395111573</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7790279164728017</v>
+        <v>-0.9206645329290408</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.310093832986911</v>
+        <v>2.48221565184836</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6517848980045148</v>
+        <v>0.7456095881291296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9364317155323518</v>
+        <v>0.9112741252098516</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.224417148754721</v>
+        <v>5.225860480504443</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.313009280980658</v>
+        <v>4.37363722801439</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.196793679086333</v>
+        <v>5.186182609399908</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.019110543944516</v>
+        <v>5.998435585157803</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.240666455715932</v>
+        <v>3.30636513397673</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.643243154794461</v>
+        <v>2.867881143567447</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.183392925767428</v>
+        <v>5.073505420030385</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.351607514249185</v>
+        <v>3.246844335388597</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.444481265507514</v>
+        <v>3.469241760139384</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1593369171935935</v>
+        <v>0.150457584755083</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.09770460577239527</v>
+        <v>0.08854750098457564</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1493262594559542</v>
+        <v>0.1654459732293908</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.07459954992058974</v>
+        <v>0.0851633113237112</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03861420511029389</v>
+        <v>-0.02925489834319083</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.034310539153235</v>
+        <v>-0.04056771559333586</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1327079052859408</v>
+        <v>0.1477922281140929</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04024970375357103</v>
+        <v>0.04359505041655162</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.05497148580404607</v>
+        <v>0.05287724667027447</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5052421735073976</v>
+        <v>0.5142965372103865</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4173785401188275</v>
+        <v>0.4190879199323234</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5091118119004788</v>
+        <v>0.5056473987350752</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3002607901670357</v>
+        <v>0.2941034292546708</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1634451279521777</v>
+        <v>0.1632862004581907</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1303614173139815</v>
+        <v>0.1428486651317849</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3329037077964038</v>
+        <v>0.3268441355031723</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2173689800431784</v>
+        <v>0.2070937896800558</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2230797839171329</v>
+        <v>0.2242207945291753</v>
       </c>
     </row>
     <row r="34">
